--- a/biology/Microbiologie/Blautia_schinkii/Blautia_schinkii.xlsx
+++ b/biology/Microbiologie/Blautia_schinkii/Blautia_schinkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blautia schinkii est une espèce de bactéries gram positives de la famille des Lachnospiraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une bactérie à coloration de Gram positive[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une bactérie à coloration de Gram positive.
 </t>
         </is>
       </c>
@@ -542,13 +556,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blautia schinkii (Rieu-Lesme et al., 1997) Liu et al., 2008[2]. Le nom de ce taxon a été validé la même année[3].
-Blautia schinkii a pour synonyme[2] :
-Ruminococcus schinkii Rieu-Lesme et al., 1997
-Étymologie
-L'étymologie de de l'épithète l'espèce Blautia schinkii est la suivante : schin’ki.i. N.L. gen. masc. n. schinkii, ce qui se réfère à Schink[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Blautia schinkii (Rieu-Lesme et al., 1997) Liu et al., 2008. Le nom de ce taxon a été validé la même année.
+Blautia schinkii a pour synonyme :
+Ruminococcus schinkii Rieu-Lesme et al., 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blautia_schinkii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blautia_schinkii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de de l'épithète l'espèce Blautia schinkii est la suivante : schin’ki.i. N.L. gen. masc. n. schinkii, ce qui se réfère à Schink.
 </t>
         </is>
       </c>
